--- a/TESTDATA/testing/Noten_2/Noten_11-HS-RS.xlsx
+++ b/TESTDATA/testing/Noten_2/Noten_11-HS-RS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t xml:space="preserve">2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susanne Streng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
 </sst>
 </file>
@@ -517,7 +529,7 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V7" activeCellId="0" sqref="V7"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1010,7 +1022,72 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
